--- a/Assignment2/B4 Self and Peer Assessment Documentation/2nd Self and Peer Assessment Spreadsheet.xlsx
+++ b/Assignment2/B4 Self and Peer Assessment Documentation/2nd Self and Peer Assessment Spreadsheet.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="A10:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -666,16 +666,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
